--- a/KIP/3 курс ПКС/Практика /ЧислМетоды/Зайцев_ЧМ_ПР9.xlsx
+++ b/KIP/3 курс ПКС/Практика /ЧислМетоды/Зайцев_ЧМ_ПР9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitazaytsev/git/TheZaychikArchive/KIP/3 курс ПКС/Практика /ЧислМетоды/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB13FDF-F5D1-7342-B5E9-80B6B1B78822}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929AF789-3D59-584B-BF37-87D5A69A4D6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FCF9955D-6756-3D43-AF51-D610A57CDAE9}"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="28240" windowHeight="16020" xr2:uid="{FCF9955D-6756-3D43-AF51-D610A57CDAE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AE4138-AF7E-7F42-A1ED-B593B737A89D}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
